--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="occupations" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Лист3" sheetId="4" r:id="rId4"/>
     <sheet name="Лист4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="3021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="3028">
   <si>
     <t>Occupations</t>
   </si>
@@ -9081,6 +9081,27 @@
   </si>
   <si>
     <t>Столбец7</t>
+  </si>
+  <si>
+    <t>дерево</t>
+  </si>
+  <si>
+    <t>металл</t>
+  </si>
+  <si>
+    <t>пластик, резина</t>
+  </si>
+  <si>
+    <t>микроэлектроника</t>
+  </si>
+  <si>
+    <t>ткань, кожа, бумага</t>
+  </si>
+  <si>
+    <t>камень, стекло, керамика</t>
+  </si>
+  <si>
+    <t>химия, краски</t>
   </si>
 </sst>
 </file>
@@ -9249,7 +9270,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9441,6 +9462,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -9602,17 +9665,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -21584,10 +21654,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21595,9 +21665,11 @@
     <col min="1" max="1" width="70.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2576</v>
       </c>
@@ -21605,15 +21677,36 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2623</v>
       </c>
       <c r="B2" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="6" t="s">
+        <v>3021</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>3023</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>3024</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>3025</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>3026</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2577</v>
       </c>
@@ -21626,8 +21719,21 @@
       <c r="E3" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>SUM(I3:O3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2578</v>
       </c>
@@ -21640,8 +21746,21 @@
       <c r="E4" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>2577</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P31" si="0">SUM(I4:O4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2579</v>
       </c>
@@ -21651,8 +21770,21 @@
       <c r="E5" t="s">
         <v>2578</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2580</v>
       </c>
@@ -21662,8 +21794,21 @@
       <c r="E6" t="s">
         <v>2585</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2581</v>
       </c>
@@ -21673,8 +21818,21 @@
       <c r="E7" t="s">
         <v>3012</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2973</v>
       </c>
@@ -21684,8 +21842,21 @@
       <c r="E8" t="s">
         <v>2580</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2582</v>
       </c>
@@ -21695,8 +21866,21 @@
       <c r="E9" t="s">
         <v>2581</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>2581</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2983</v>
       </c>
@@ -21706,8 +21890,21 @@
       <c r="E10" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>2973</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2583</v>
       </c>
@@ -21717,8 +21914,21 @@
       <c r="E11" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>2582</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2584</v>
       </c>
@@ -21728,8 +21938,21 @@
       <c r="E12" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>2983</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2585</v>
       </c>
@@ -21739,8 +21962,21 @@
       <c r="E13" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>2583</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2586</v>
       </c>
@@ -21750,8 +21986,21 @@
       <c r="E14" t="s">
         <v>2584</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>2584</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2587</v>
       </c>
@@ -21761,8 +22010,21 @@
       <c r="E15" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2588</v>
       </c>
@@ -21772,8 +22034,21 @@
       <c r="E16" t="s">
         <v>2586</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2589</v>
       </c>
@@ -21783,8 +22058,21 @@
       <c r="E17" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2590</v>
       </c>
@@ -21794,65 +22082,270 @@
       <c r="E18" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>2589</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>2594</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>2596</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>2597</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>2601</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2602</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2602</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f>SUM(I3:I31)</f>
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:O32" si="1">SUM(J3:J31)</f>
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -21865,7 +22358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C130" workbookViewId="0">
+    <sheetView topLeftCell="C130" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -22523,10 +23016,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (2,'Почвовед',2,7,35,0,0,0);</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>2623</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -22561,10 +23054,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (2,'Геолог',3,8,35,0,0,0);</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>2577</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>2</v>
       </c>
     </row>
@@ -22599,10 +23092,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (2,'Геонавигатор',3,9,55,0,0,0);</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>2578</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>3</v>
       </c>
     </row>
@@ -22637,10 +23130,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (2,'Геофизик',3,10,75,0,0,0);</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>2585</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>4</v>
       </c>
     </row>
@@ -22678,10 +23171,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'санитар',1,1,0,0,0,0);</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>2579</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>5</v>
       </c>
     </row>
@@ -22719,10 +23212,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'младшая медсестра',1,2,15,0,0,0);</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>2580</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>6</v>
       </c>
     </row>
@@ -22760,10 +23253,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'старшая медсестра',1,3,30,0,0,0);</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>2581</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>7</v>
       </c>
     </row>
@@ -22801,10 +23294,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'лаборант',2,4,30,0,0,0);</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>8</v>
       </c>
     </row>
@@ -22842,10 +23335,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'фельдшер',2,5,50,5,0,0);</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>2582</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <v>9</v>
       </c>
     </row>
@@ -22883,10 +23376,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'интерн',2,6,70,10,0,0);</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>2983</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <v>10</v>
       </c>
     </row>
@@ -22924,10 +23417,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'терапевт',3,7,70,10,0,0);</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3" t="s">
         <v>2583</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <v>11</v>
       </c>
     </row>
@@ -22965,10 +23458,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'врач-специалист',3,8,75,20,0,0);</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3" t="s">
         <v>2584</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>12</v>
       </c>
     </row>
@@ -23006,10 +23499,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'доктор медицинских наук',3,9,80,30,0,0);</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="3" t="s">
         <v>2588</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="3">
         <v>13</v>
       </c>
     </row>
@@ -23047,10 +23540,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (4,'министр здравоохранения',3,10,85,40,0,0);</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>2586</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>14</v>
       </c>
     </row>
@@ -23088,10 +23581,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (3,'Художник граффити',1,1,0,0,0,0);</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>2587</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="3">
         <v>15</v>
       </c>
     </row>
@@ -23129,10 +23622,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (3,'Мастер вышивки',1,2,5,0,0,10);</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>2593</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <v>16</v>
       </c>
     </row>
@@ -23240,10 +23733,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (3,'Ландшафтный дизайн',1,5,12,0,0,40);</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="4" t="s">
         <v>2614</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
         <v>1</v>
       </c>
     </row>
@@ -23281,10 +23774,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (3,'Дизайн интерьеров',1,6,15,0,0,50);</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="4" t="s">
         <v>2615</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="4">
         <v>2</v>
       </c>
     </row>
@@ -23322,10 +23815,10 @@
         <f t="shared" si="2"/>
         <v>INSERT INTO `profession`(`category`, `name`, `education`, `level`, `intelligence`, `charisma`, `strength`, `creativity`) VALUES (3,'Дизайнер одежды',1,7,20,0,0,60);</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="4" t="s">
         <v>2616</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="4">
         <v>3</v>
       </c>
     </row>
@@ -28345,179 +28838,179 @@
       <c r="A1" t="s">
         <v>1533</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2667</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2668</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2669</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2670</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2671</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2672</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2673</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2674</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2652</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2655</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2675</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2676</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2677</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1193</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2678</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2679</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2680</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>2681</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2682</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2683</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2684</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2685</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2686</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2687</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2688</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2689</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>2690</v>
       </c>
     </row>
@@ -28525,417 +29018,417 @@
       <c r="A30" t="s">
         <v>2691</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2692</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>2693</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>2694</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>2695</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2696</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>2697</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>2698</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2699</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>2700</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>2701</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2702</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2703</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1856</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>2704</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2705</v>
       </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>2706</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>2707</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2708</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>2709</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>2710</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>2711</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>2712</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>2713</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>2714</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>2715</v>
       </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>2716</v>
       </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1685</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2717</v>
       </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>2718</v>
       </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>2719</v>
       </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>2720</v>
       </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>2721</v>
       </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>2722</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1974</v>
       </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>2723</v>
       </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>2724</v>
       </c>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>2725</v>
       </c>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>2726</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>2727</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>2728</v>
       </c>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>2729</v>
       </c>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2730</v>
       </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>2731</v>
       </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>2732</v>
       </c>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>2733</v>
       </c>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>2734</v>
       </c>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>2735</v>
       </c>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>2736</v>
       </c>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>2737</v>
       </c>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>2065</v>
       </c>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>2738</v>
       </c>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>2739</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>2740</v>
       </c>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>2741</v>
       </c>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>2742</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>2743</v>
       </c>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1161</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>2745</v>
       </c>
     </row>
@@ -28943,223 +29436,223 @@
       <c r="A99" t="s">
         <v>2746</v>
       </c>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>2747</v>
       </c>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>2748</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>2749</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1210</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>2750</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>2751</v>
       </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>2753</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>2754</v>
       </c>
-      <c r="B111" s="3"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>2173</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="B113" s="3"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1167</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2755</v>
       </c>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>2757</v>
       </c>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1638</v>
       </c>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>2758</v>
       </c>
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2759</v>
       </c>
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>2636</v>
       </c>
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>2760</v>
       </c>
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>2762</v>
       </c>
-      <c r="B129" s="3"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="B130" s="3"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2763</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="B132" s="3"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>2764</v>
       </c>
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>2765</v>
       </c>
-      <c r="B134" s="3"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2766</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5" t="s">
         <v>2767</v>
       </c>
     </row>
@@ -29167,67 +29660,67 @@
       <c r="A136" t="s">
         <v>2768</v>
       </c>
-      <c r="B136" s="3"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>2769</v>
       </c>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>2770</v>
       </c>
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>2771</v>
       </c>
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>2772</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2033</v>
       </c>
-      <c r="B145" s="3"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2773</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5" t="s">
         <v>2774</v>
       </c>
     </row>
@@ -29235,43 +29728,43 @@
       <c r="A147" t="s">
         <v>2775</v>
       </c>
-      <c r="B147" s="3"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2776</v>
       </c>
-      <c r="B148" s="3"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2777</v>
       </c>
-      <c r="B149" s="3"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2778</v>
       </c>
-      <c r="B150" s="3"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>2779</v>
       </c>
-      <c r="B151" s="3"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2780</v>
       </c>
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>2781</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5" t="s">
         <v>2782</v>
       </c>
     </row>
@@ -29279,85 +29772,85 @@
       <c r="A154" t="s">
         <v>2783</v>
       </c>
-      <c r="B154" s="3"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2784</v>
       </c>
-      <c r="B155" s="3"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2625</v>
       </c>
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="B157" s="3"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1495</v>
       </c>
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>2785</v>
       </c>
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>2786</v>
       </c>
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>2787</v>
       </c>
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>2788</v>
       </c>
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>2789</v>
       </c>
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>2651</v>
       </c>
-      <c r="B166" s="3"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2660</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>2790</v>
       </c>
     </row>
@@ -29365,85 +29858,85 @@
       <c r="A168" t="s">
         <v>2791</v>
       </c>
-      <c r="B168" s="3"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>2792</v>
       </c>
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>2793</v>
       </c>
-      <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>2794</v>
       </c>
-      <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>2795</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="B173" s="3"/>
+      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2661</v>
       </c>
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>2662</v>
       </c>
-      <c r="B175" s="3"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>2796</v>
       </c>
-      <c r="B176" s="3"/>
-    </row>
-    <row r="177" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>2797</v>
       </c>
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="B178" s="3"/>
+      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="B179" s="3"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>2798</v>
       </c>
-      <c r="B180" s="3"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2799</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="5" t="s">
         <v>2800</v>
       </c>
     </row>
@@ -29451,175 +29944,175 @@
       <c r="A182" t="s">
         <v>1487</v>
       </c>
-      <c r="B182" s="3"/>
-    </row>
-    <row r="183" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>2801</v>
       </c>
-      <c r="B183" s="3"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2802</v>
       </c>
-      <c r="B184" s="3"/>
-    </row>
-    <row r="185" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>2803</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="B187" s="3"/>
-    </row>
-    <row r="188" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>2804</v>
       </c>
-      <c r="B188" s="3"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>2805</v>
       </c>
-      <c r="B189" s="3"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="B190" s="3"/>
-    </row>
-    <row r="191" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="B191" s="3"/>
-    </row>
-    <row r="192" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>2806</v>
       </c>
-      <c r="B192" s="3"/>
-    </row>
-    <row r="193" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>2807</v>
       </c>
-      <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>2808</v>
       </c>
-      <c r="B194" s="3"/>
-    </row>
-    <row r="195" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>2809</v>
       </c>
-      <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>2810</v>
       </c>
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>2811</v>
       </c>
-      <c r="B197" s="3"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2812</v>
       </c>
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>2143</v>
       </c>
-      <c r="B199" s="3"/>
-    </row>
-    <row r="200" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>2813</v>
       </c>
-      <c r="B200" s="3"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1781</v>
       </c>
-      <c r="B201" s="3"/>
-    </row>
-    <row r="202" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="B202" s="3"/>
-    </row>
-    <row r="203" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="B203" s="3"/>
-    </row>
-    <row r="204" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>2814</v>
       </c>
-      <c r="B204" s="3"/>
-    </row>
-    <row r="205" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>2815</v>
       </c>
-      <c r="B205" s="3"/>
-    </row>
-    <row r="206" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="B206" s="3"/>
+      <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2816</v>
       </c>
-      <c r="B207" s="3"/>
-    </row>
-    <row r="208" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>2817</v>
       </c>
-      <c r="B208" s="3"/>
-    </row>
-    <row r="209" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="B209" s="3"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2818</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="5" t="s">
         <v>2819</v>
       </c>
     </row>
@@ -29627,19 +30120,19 @@
       <c r="A211" t="s">
         <v>1976</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1978</v>
       </c>
-      <c r="B212" s="3"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1138</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="5" t="s">
         <v>2820</v>
       </c>
     </row>
@@ -29647,283 +30140,283 @@
       <c r="A214" t="s">
         <v>2821</v>
       </c>
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>2822</v>
       </c>
-      <c r="B215" s="3"/>
-    </row>
-    <row r="216" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>2823</v>
       </c>
-      <c r="B217" s="3"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>2824</v>
       </c>
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>2825</v>
       </c>
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>2826</v>
       </c>
-      <c r="B220" s="3"/>
-    </row>
-    <row r="221" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>2827</v>
       </c>
-      <c r="B221" s="3"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2828</v>
       </c>
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="B223" s="3"/>
-    </row>
-    <row r="224" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>2829</v>
       </c>
-      <c r="B224" s="3"/>
-    </row>
-    <row r="225" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="B225" s="3"/>
-    </row>
-    <row r="226" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>2830</v>
       </c>
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="B227" s="3"/>
-    </row>
-    <row r="228" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B227" s="5"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>2831</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2832</v>
       </c>
-      <c r="B229" s="3"/>
-    </row>
-    <row r="230" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>2833</v>
       </c>
-      <c r="B230" s="3"/>
-    </row>
-    <row r="231" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>2834</v>
       </c>
-      <c r="B231" s="3"/>
-    </row>
-    <row r="232" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>2835</v>
       </c>
-      <c r="B232" s="3"/>
-    </row>
-    <row r="233" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>2836</v>
       </c>
-      <c r="B233" s="3"/>
-    </row>
-    <row r="234" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>2837</v>
       </c>
-      <c r="B234" s="3"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>2838</v>
       </c>
-      <c r="B235" s="3"/>
-    </row>
-    <row r="236" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>2839</v>
       </c>
-      <c r="B236" s="3"/>
-    </row>
-    <row r="237" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>2840</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>2841</v>
       </c>
-      <c r="B238" s="3"/>
-    </row>
-    <row r="239" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2842</v>
       </c>
-      <c r="B240" s="3"/>
-    </row>
-    <row r="241" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>2843</v>
       </c>
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="B242" s="3"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="B243" s="3"/>
-    </row>
-    <row r="244" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>2844</v>
       </c>
-      <c r="B244" s="3"/>
-    </row>
-    <row r="245" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B244" s="5"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="B245" s="3"/>
-    </row>
-    <row r="246" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>1924</v>
       </c>
-      <c r="B246" s="3"/>
-    </row>
-    <row r="247" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B246" s="5"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>2845</v>
       </c>
-      <c r="B247" s="3"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2846</v>
       </c>
-      <c r="B248" s="3"/>
-    </row>
-    <row r="249" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B248" s="5"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>2847</v>
       </c>
-      <c r="B249" s="3"/>
-    </row>
-    <row r="250" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B249" s="5"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>2848</v>
       </c>
-      <c r="B250" s="3"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2021</v>
       </c>
-      <c r="B251" s="3"/>
-    </row>
-    <row r="252" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>2849</v>
       </c>
-      <c r="B252" s="3"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1745</v>
       </c>
-      <c r="B253" s="3"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2850</v>
       </c>
-      <c r="B254" s="3"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1310</v>
       </c>
-      <c r="B255" s="3"/>
-    </row>
-    <row r="256" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B255" s="5"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B256" s="5"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>2851</v>
       </c>
-      <c r="B257" s="3"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="B258" s="3"/>
-    </row>
-    <row r="259" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B258" s="5"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>2852</v>
       </c>
-      <c r="B259" s="3"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2853</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="5" t="s">
         <v>2854</v>
       </c>
     </row>
@@ -29931,868 +30424,874 @@
       <c r="A261" t="s">
         <v>1247</v>
       </c>
-      <c r="B261" s="3"/>
-    </row>
-    <row r="262" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>2855</v>
       </c>
-      <c r="B262" s="3"/>
-    </row>
-    <row r="263" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B262" s="5"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>2856</v>
       </c>
-      <c r="B263" s="3"/>
-    </row>
-    <row r="264" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>2857</v>
       </c>
-      <c r="B264" s="3"/>
-    </row>
-    <row r="265" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>2858</v>
       </c>
-      <c r="B265" s="3"/>
-    </row>
-    <row r="266" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B265" s="5"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>2859</v>
       </c>
-      <c r="B266" s="3"/>
-    </row>
-    <row r="267" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B266" s="5"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>2860</v>
       </c>
-      <c r="B267" s="3"/>
-    </row>
-    <row r="268" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B267" s="5"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>2861</v>
       </c>
-      <c r="B268" s="3"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2862</v>
       </c>
-      <c r="B269" s="3"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1393</v>
       </c>
-      <c r="B270" s="3"/>
-    </row>
-    <row r="271" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B270" s="5"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>2863</v>
       </c>
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B271" s="5"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>2864</v>
       </c>
-      <c r="B272" s="3"/>
-    </row>
-    <row r="273" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>2865</v>
       </c>
-      <c r="B273" s="3"/>
-    </row>
-    <row r="274" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B273" s="5"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>2866</v>
       </c>
-      <c r="B274" s="3"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>2867</v>
       </c>
-      <c r="B275" s="3"/>
-    </row>
-    <row r="276" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B275" s="5"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>2868</v>
       </c>
-      <c r="B276" s="3"/>
-    </row>
-    <row r="277" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B276" s="5"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="B277" s="3"/>
-    </row>
-    <row r="278" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B277" s="5"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>2869</v>
       </c>
-      <c r="B278" s="3"/>
-    </row>
-    <row r="279" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B278" s="5"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="B279" s="3"/>
-    </row>
-    <row r="280" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B279" s="5"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>2870</v>
       </c>
-      <c r="B280" s="3"/>
-    </row>
-    <row r="281" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B280" s="5"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>2871</v>
       </c>
-      <c r="B281" s="3"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1231</v>
       </c>
-      <c r="B282" s="3"/>
-    </row>
-    <row r="283" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B282" s="5"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="B283" s="3"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2872</v>
       </c>
-      <c r="B284" s="3"/>
-    </row>
-    <row r="285" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B284" s="5"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>2873</v>
       </c>
-      <c r="B285" s="3"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1899</v>
       </c>
-      <c r="B286" s="3"/>
-    </row>
-    <row r="287" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B286" s="5"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="B287" s="3"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>2874</v>
       </c>
-      <c r="B288" s="3"/>
-    </row>
-    <row r="289" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B288" s="5"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>2875</v>
       </c>
-      <c r="B289" s="3"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>2876</v>
       </c>
-      <c r="B290" s="3"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1580</v>
       </c>
-      <c r="B291" s="3"/>
-    </row>
-    <row r="292" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B291" s="5"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B292" s="3"/>
-    </row>
-    <row r="293" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B292" s="5"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="B293" s="3"/>
-    </row>
-    <row r="294" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B293" s="5"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>2877</v>
       </c>
-      <c r="B294" s="3"/>
-    </row>
-    <row r="295" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B294" s="5"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>2878</v>
       </c>
-      <c r="B295" s="3"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2879</v>
       </c>
-      <c r="B296" s="3"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2880</v>
       </c>
-      <c r="B297" s="3"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B298" s="5"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>2881</v>
       </c>
-      <c r="B299" s="3"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>2882</v>
       </c>
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B300" s="5"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>2883</v>
       </c>
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B301" s="5"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>2884</v>
       </c>
-      <c r="B302" s="3"/>
-    </row>
-    <row r="303" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B302" s="5"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="B303" s="3"/>
-    </row>
-    <row r="304" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>2885</v>
       </c>
-      <c r="B304" s="3"/>
-    </row>
-    <row r="305" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>2886</v>
       </c>
-      <c r="B305" s="3"/>
-    </row>
-    <row r="306" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B305" s="5"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>2153</v>
       </c>
-      <c r="B306" s="3"/>
-    </row>
-    <row r="307" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>2887</v>
       </c>
-      <c r="B307" s="3"/>
-    </row>
-    <row r="308" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="B308" s="3"/>
-    </row>
-    <row r="309" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B308" s="5"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>2888</v>
       </c>
-      <c r="B309" s="3"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="B310" s="3"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1233</v>
       </c>
-      <c r="B311" s="3"/>
-    </row>
-    <row r="312" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B311" s="5"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>2889</v>
       </c>
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B312" s="5"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>2890</v>
       </c>
-      <c r="B313" s="3"/>
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>2891</v>
       </c>
-      <c r="B314" s="3"/>
-    </row>
-    <row r="315" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B314" s="5"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>2892</v>
       </c>
-      <c r="B315" s="3"/>
-    </row>
-    <row r="316" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>2893</v>
       </c>
-      <c r="B316" s="3"/>
-    </row>
-    <row r="317" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>2894</v>
       </c>
-      <c r="B317" s="3"/>
+      <c r="B317" s="5"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2149</v>
       </c>
-      <c r="B318" s="3"/>
+      <c r="B318" s="5"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="B319" s="3"/>
+      <c r="B319" s="5"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="B320" s="3"/>
-    </row>
-    <row r="321" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>2895</v>
       </c>
-      <c r="B321" s="3"/>
-    </row>
-    <row r="322" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>2896</v>
       </c>
-      <c r="B322" s="3"/>
-    </row>
-    <row r="323" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>2897</v>
       </c>
-      <c r="B323" s="3"/>
-    </row>
-    <row r="324" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B323" s="5"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>2898</v>
       </c>
-      <c r="B324" s="3"/>
-    </row>
-    <row r="325" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>2899</v>
       </c>
-      <c r="B325" s="3"/>
+      <c r="B325" s="5"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1145</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="5" t="s">
         <v>2900</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>2901</v>
       </c>
-      <c r="B327" s="3"/>
-    </row>
-    <row r="328" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>2902</v>
       </c>
-      <c r="B328" s="3"/>
+      <c r="B328" s="5"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>2903</v>
       </c>
-      <c r="B329" s="3"/>
-    </row>
-    <row r="330" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>2904</v>
       </c>
-      <c r="B330" s="3"/>
-    </row>
-    <row r="331" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="B331" s="3"/>
-    </row>
-    <row r="332" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>2905</v>
       </c>
-      <c r="B332" s="3"/>
-    </row>
-    <row r="333" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B332" s="5"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>2906</v>
       </c>
-      <c r="B333" s="3"/>
-    </row>
-    <row r="334" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B333" s="5"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>2907</v>
       </c>
-      <c r="B334" s="3"/>
-    </row>
-    <row r="335" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>2908</v>
       </c>
-      <c r="B335" s="3"/>
+      <c r="B335" s="5"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>2909</v>
       </c>
-      <c r="B336" s="3"/>
+      <c r="B336" s="5"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>2910</v>
       </c>
-      <c r="B337" s="3"/>
+      <c r="B337" s="5"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>2911</v>
       </c>
-      <c r="B338" s="3"/>
+      <c r="B338" s="5"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>2912</v>
       </c>
-      <c r="B339" s="3"/>
+      <c r="B339" s="5"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>1925</v>
       </c>
-      <c r="B340" s="3"/>
-    </row>
-    <row r="341" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B340" s="5"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>2913</v>
       </c>
-      <c r="B341" s="3"/>
-    </row>
-    <row r="342" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B341" s="5"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>2914</v>
       </c>
-      <c r="B342" s="3"/>
-    </row>
-    <row r="343" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B342" s="5"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>2915</v>
       </c>
-      <c r="B343" s="3"/>
+      <c r="B343" s="5"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1992</v>
       </c>
-      <c r="B344" s="3"/>
+      <c r="B344" s="5"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="B345" s="3"/>
-    </row>
-    <row r="346" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B345" s="5"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>2916</v>
       </c>
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B346" s="5"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="B347" s="3"/>
-    </row>
-    <row r="348" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>2917</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="5" t="s">
         <v>2918</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>2919</v>
       </c>
-      <c r="B349" s="3"/>
-    </row>
-    <row r="350" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>2920</v>
       </c>
-      <c r="B350" s="3"/>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="B351" s="3"/>
+      <c r="B351" s="5"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>2921</v>
       </c>
-      <c r="B352" s="3"/>
-    </row>
-    <row r="353" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>2922</v>
       </c>
-      <c r="B353" s="3"/>
-    </row>
-    <row r="354" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>2923</v>
       </c>
-      <c r="B354" s="3"/>
-    </row>
-    <row r="355" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B354" s="5"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="B355" s="3"/>
-    </row>
-    <row r="356" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B355" s="5"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>2924</v>
       </c>
-      <c r="B356" s="3"/>
-    </row>
-    <row r="357" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B356" s="5"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>2925</v>
       </c>
-      <c r="B357" s="3"/>
+      <c r="B357" s="5"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2926</v>
       </c>
-      <c r="B358" s="3"/>
-    </row>
-    <row r="359" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B358" s="5"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>2927</v>
       </c>
-      <c r="B359" s="3"/>
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>2928</v>
       </c>
-      <c r="B360" s="3"/>
-    </row>
-    <row r="361" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B361" s="5"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>2929</v>
       </c>
-      <c r="B362" s="3"/>
-    </row>
-    <row r="363" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>2146</v>
       </c>
-      <c r="B363" s="3"/>
+      <c r="B363" s="5"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2930</v>
       </c>
-      <c r="B364" s="3"/>
+      <c r="B364" s="5"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>2931</v>
       </c>
-      <c r="B365" s="3"/>
-    </row>
-    <row r="366" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B365" s="5"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>2932</v>
       </c>
-      <c r="B366" s="3"/>
-    </row>
-    <row r="367" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>2933</v>
       </c>
-      <c r="B367" s="3"/>
+      <c r="B367" s="5"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>2934</v>
       </c>
-      <c r="B368" s="3"/>
+      <c r="B368" s="5"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>2935</v>
       </c>
-      <c r="B369" s="3"/>
-    </row>
-    <row r="370" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B369" s="5"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>2936</v>
       </c>
-      <c r="B370" s="3"/>
-    </row>
-    <row r="371" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B370" s="5"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>2937</v>
       </c>
-      <c r="B371" s="3"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2938</v>
       </c>
-      <c r="B372" s="3"/>
-    </row>
-    <row r="373" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B372" s="5"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>2939</v>
       </c>
-      <c r="B373" s="3"/>
-    </row>
-    <row r="374" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B373" s="5"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="B374" s="3"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2940</v>
       </c>
-      <c r="B375" s="3"/>
-    </row>
-    <row r="376" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B375" s="5"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>2941</v>
       </c>
-      <c r="B376" s="3"/>
-    </row>
-    <row r="377" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B376" s="5"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="B377" s="3"/>
-    </row>
-    <row r="378" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="B378" s="3"/>
-    </row>
-    <row r="379" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B379" s="3"/>
-    </row>
-    <row r="380" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B379" s="5"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>2102</v>
       </c>
-      <c r="B380" s="3"/>
-    </row>
-    <row r="381" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B380" s="5"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>2942</v>
       </c>
-      <c r="B381" s="3"/>
+      <c r="B381" s="5"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1629</v>
       </c>
-      <c r="B382" s="3"/>
+      <c r="B382" s="5"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>2025</v>
       </c>
-      <c r="B383" s="3"/>
-    </row>
-    <row r="384" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B383" s="5"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="B384" s="3"/>
-    </row>
-    <row r="385" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B384" s="5"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>2128</v>
       </c>
-      <c r="B385" s="3"/>
-    </row>
-    <row r="386" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B385" s="5"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="B386" s="3"/>
-    </row>
-    <row r="387" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B386" s="5"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>2943</v>
       </c>
-      <c r="B387" s="3"/>
-    </row>
-    <row r="388" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B387" s="5"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="B388" s="3"/>
+      <c r="B388" s="5"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>2944</v>
       </c>
-      <c r="B389" s="3"/>
-    </row>
-    <row r="390" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B389" s="5"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>2945</v>
       </c>
-      <c r="B390" s="3"/>
-    </row>
-    <row r="391" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B390" s="5"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>2946</v>
       </c>
-      <c r="B391" s="3"/>
-    </row>
-    <row r="392" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B391" s="5"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>2947</v>
       </c>
-      <c r="B392" s="3"/>
-    </row>
-    <row r="393" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B392" s="5"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="B393" s="3"/>
-    </row>
-    <row r="394" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B393" s="5"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="B394" s="3"/>
+      <c r="B394" s="5"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2948</v>
       </c>
-      <c r="B395" s="3"/>
-    </row>
-    <row r="396" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B395" s="5"/>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>2949</v>
       </c>
-      <c r="B396" s="3"/>
+      <c r="B396" s="5"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1910</v>
       </c>
-      <c r="B397" s="3"/>
-    </row>
-    <row r="398" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B397" s="5"/>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>2950</v>
       </c>
-      <c r="B398" s="3"/>
-    </row>
-    <row r="399" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>2951</v>
       </c>
-      <c r="B399" s="3"/>
+      <c r="B399" s="5"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2952</v>
       </c>
-      <c r="B400" s="3"/>
-    </row>
-    <row r="401" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B400" s="5"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="B401" s="3"/>
-    </row>
-    <row r="402" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B401" s="5"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>2953</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="5" t="s">
         <v>2954</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>2955</v>
       </c>
-      <c r="B403" s="3"/>
+      <c r="B403" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B135:B145"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B29:B48"/>
+    <mergeCell ref="B49:B97"/>
+    <mergeCell ref="B98:B134"/>
     <mergeCell ref="B260:B325"/>
     <mergeCell ref="B326:B347"/>
     <mergeCell ref="B348:B401"/>
@@ -30803,12 +31302,6 @@
     <mergeCell ref="B181:B209"/>
     <mergeCell ref="B210:B212"/>
     <mergeCell ref="B213:B259"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B29:B48"/>
-    <mergeCell ref="B49:B97"/>
-    <mergeCell ref="B98:B134"/>
-    <mergeCell ref="B135:B145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/occupations.xlsx
+++ b/occupations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="occupations" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="3129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="3130">
   <si>
     <t>Occupations</t>
   </si>
@@ -9405,6 +9405,9 @@
   </si>
   <si>
     <t>Имидж-мейкер</t>
+  </si>
+  <si>
+    <t>зп</t>
   </si>
 </sst>
 </file>
@@ -10060,7 +10063,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10115,6 +10118,7 @@
     <xf numFmtId="0" fontId="19" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -22090,10 +22094,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22105,7 +22109,7 @@
     <col min="9" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2576</v>
       </c>
@@ -22113,7 +22117,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2619</v>
       </c>
@@ -22141,8 +22145,11 @@
       <c r="O2" s="12" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2577</v>
       </c>
@@ -22154,6 +22161,9 @@
       </c>
       <c r="E3" t="s">
         <v>2619</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>2619</v>
@@ -22168,8 +22178,15 @@
         <f>SUM(I3:O3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3" t="str">
+        <f>"INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ([value-2],[value-3],[value-4],[value-5],[value-6],[value-7],[value-8],[value-9],[value-10])"</f>
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ([value-2],[value-3],[value-4],[value-5],[value-6],[value-7],[value-8],[value-9],[value-10])</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2578</v>
       </c>
@@ -22181,6 +22198,9 @@
       </c>
       <c r="E4" t="s">
         <v>2577</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>2577</v>
@@ -22195,8 +22215,11 @@
         <f t="shared" ref="P4:P33" si="0">SUM(I4:O4)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2579</v>
       </c>
@@ -22205,6 +22228,9 @@
       </c>
       <c r="E5" t="s">
         <v>2578</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>2578</v>
@@ -22219,8 +22245,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2580</v>
       </c>
@@ -22229,6 +22258,9 @@
       </c>
       <c r="E6" t="s">
         <v>2585</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>2585</v>
@@ -22243,8 +22275,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2581</v>
       </c>
@@ -22253,6 +22288,9 @@
       </c>
       <c r="E7" t="s">
         <v>3008</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>2579</v>
@@ -22267,8 +22305,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2969</v>
       </c>
@@ -22278,21 +22319,27 @@
       <c r="E8" t="s">
         <v>2580</v>
       </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
       <c r="H8" t="s">
         <v>2580</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2582</v>
       </c>
@@ -22301,6 +22348,9 @@
       </c>
       <c r="E9" t="s">
         <v>2581</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>2581</v>
@@ -22315,8 +22365,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2979</v>
       </c>
@@ -22325,6 +22378,9 @@
       </c>
       <c r="E10" t="s">
         <v>2969</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>2969</v>
@@ -22339,8 +22395,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2583</v>
       </c>
@@ -22349,6 +22408,9 @@
       </c>
       <c r="E11" t="s">
         <v>3009</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>2582</v>
@@ -22363,8 +22425,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2584</v>
       </c>
@@ -22373,6 +22438,9 @@
       </c>
       <c r="E12" t="s">
         <v>2979</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>2979</v>
@@ -22387,8 +22455,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2585</v>
       </c>
@@ -22398,21 +22469,27 @@
       <c r="E13" t="s">
         <v>2583</v>
       </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
       <c r="H13" t="s">
         <v>2583</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2586</v>
       </c>
@@ -22421,6 +22498,9 @@
       </c>
       <c r="E14" t="s">
         <v>2584</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>2584</v>
@@ -22435,8 +22515,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2587</v>
       </c>
@@ -22445,6 +22528,9 @@
       </c>
       <c r="E15" t="s">
         <v>2588</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>2588</v>
@@ -22459,8 +22545,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2588</v>
       </c>
@@ -22469,6 +22558,9 @@
       </c>
       <c r="E16" t="s">
         <v>2586</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>2586</v>
@@ -22483,8 +22575,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2589</v>
       </c>
@@ -22494,21 +22589,27 @@
       <c r="E17" t="s">
         <v>2587</v>
       </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
       <c r="H17" t="s">
         <v>2587</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3036</v>
       </c>
@@ -22517,6 +22618,9 @@
       </c>
       <c r="E18" t="s">
         <v>2591</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>2591</v>
@@ -22531,8 +22635,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2590</v>
       </c>
@@ -22541,6 +22648,9 @@
       </c>
       <c r="E19" t="s">
         <v>2589</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>2589</v>
@@ -22555,8 +22665,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2591</v>
       </c>
@@ -22566,10 +22679,13 @@
       <c r="E20" t="s">
         <v>3036</v>
       </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>3036</v>
       </c>
-      <c r="M20">
+      <c r="J20">
         <v>1</v>
       </c>
       <c r="N20">
@@ -22580,7 +22696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2592</v>
       </c>
@@ -22589,6 +22705,9 @@
       </c>
       <c r="E21" t="s">
         <v>2590</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>2590</v>
@@ -22604,7 +22723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3067</v>
       </c>
@@ -22613,6 +22732,9 @@
       </c>
       <c r="E22" t="s">
         <v>2592</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>2592</v>
@@ -22628,7 +22750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3079</v>
       </c>
@@ -22637,6 +22759,9 @@
       </c>
       <c r="E23" t="s">
         <v>3067</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>3067</v>
@@ -22652,7 +22777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2593</v>
       </c>
@@ -22661,6 +22786,9 @@
       </c>
       <c r="E24" t="s">
         <v>3079</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>3079</v>
@@ -22676,7 +22804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2594</v>
       </c>
@@ -22685,6 +22813,9 @@
       </c>
       <c r="E25" t="s">
         <v>2593</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>2593</v>
@@ -22700,7 +22831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3087</v>
       </c>
@@ -22709,6 +22840,9 @@
       </c>
       <c r="E26" t="s">
         <v>2594</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>2594</v>
@@ -22724,7 +22858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3088</v>
       </c>
@@ -22733,6 +22867,9 @@
       </c>
       <c r="E27" t="s">
         <v>3087</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>3087</v>
@@ -22748,7 +22885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2595</v>
       </c>
@@ -22757,6 +22894,9 @@
       </c>
       <c r="E28" t="s">
         <v>3088</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>3088</v>
@@ -22772,7 +22912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2596</v>
       </c>
@@ -22782,10 +22922,13 @@
       <c r="E29" t="s">
         <v>2595</v>
       </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
       <c r="H29" s="10" t="s">
         <v>2595</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <v>1</v>
       </c>
       <c r="O29">
@@ -22796,7 +22939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2597</v>
       </c>
@@ -22805,6 +22948,9 @@
       </c>
       <c r="E30" t="s">
         <v>2596</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>2596</v>
@@ -22820,7 +22966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2598</v>
       </c>
@@ -22830,27 +22976,45 @@
       <c r="E31" t="s">
         <v>2597</v>
       </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
       <c r="H31" s="10" t="s">
         <v>2597</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>2598</v>
       </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
       <c r="H32" s="10" t="s">
         <v>2598</v>
       </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.25">
@@ -22861,32 +23025,32 @@
     </row>
     <row r="34" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I34">
-        <f>SUM(I3:I31)</f>
+        <f>SUM(I3:I32)</f>
         <v>8</v>
       </c>
       <c r="J34">
-        <f>SUM(J3:J31)</f>
-        <v>7</v>
+        <f t="shared" ref="J34:O34" si="1">SUM(J3:J32)</f>
+        <v>8</v>
       </c>
       <c r="K34">
-        <f>SUM(K3:K31)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L34">
-        <f>SUM(L3:L31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="M34">
-        <f>SUM(M3:M31)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="N34">
-        <f>SUM(N3:N31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O34">
-        <f>SUM(O3:O31)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -22899,8 +23063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23985,7 +24149,7 @@
       <c r="M23" s="14" t="s">
         <v>3127</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="O23" s="50" t="s">
         <v>2580</v>
       </c>
       <c r="P23" s="49">
@@ -24235,7 +24399,7 @@
       <c r="M28" s="14" t="s">
         <v>3127</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="50" t="s">
         <v>2583</v>
       </c>
       <c r="P28" s="49">
@@ -37000,7 +37164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B403"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A214" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
